--- a/docs/01_LittleBabyCalendar.xlsx
+++ b/docs/01_LittleBabyCalendar.xlsx
@@ -8,33 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janne\source\little-baby-age-expo54\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C4025B-2CBA-4E1A-A9F0-9C67D16E185A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E161A49A-5808-42AC-BAF6-2B7D030EF563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dataModels.ts" sheetId="7" r:id="rId1"/>
-    <sheet name="バグリスト" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
-    <sheet name="App.tsx" sheetId="3" r:id="rId4"/>
-    <sheet name="index.tsx" sheetId="4" r:id="rId5"/>
-    <sheet name="CalendarScreen.tsx" sheetId="2" r:id="rId6"/>
+    <sheet name="バグリスト" sheetId="5" r:id="rId1"/>
+    <sheet name="dataModels.ts" sheetId="7" r:id="rId2"/>
+    <sheet name="App.tsx" sheetId="3" r:id="rId3"/>
+    <sheet name="index.tsx" sheetId="4" r:id="rId4"/>
+    <sheet name="CalendarScreen.tsx" sheetId="2" r:id="rId5"/>
+    <sheet name="AchievementSheet.tsx" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">バグリスト!$B$2:$H$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">バグリスト!$B$2:$H$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="162">
   <si>
     <t>役割：</t>
     <rPh sb="0" eb="2">
@@ -557,68 +568,6 @@
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>課題分類</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>動作不良</t>
-    <rPh sb="0" eb="4">
-      <t>ドウサフリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕様漏れ</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コードの問題</t>
-    <rPh sb="4" eb="6">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要度</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウヨウド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1:高</t>
-    <rPh sb="2" eb="3">
-      <t>コウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2:中</t>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3:低</t>
-    <rPh sb="2" eb="3">
-      <t>テイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -720,26 +669,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>正誤日数が反映されていない
-"NaN日目"という表示になっている</t>
-    <rPh sb="0" eb="2">
-      <t>セイゴ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニッスウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニチメ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タイトルや詳細を入力する際、キーボードにより、入力欄が隠れてしまっている</t>
     <rPh sb="5" eb="7">
       <t>ショウサイ</t>
@@ -756,10 +685,6 @@
     <rPh sb="27" eb="28">
       <t>カク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スクロールできない</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -834,26 +759,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"保存して閉じる"押下で何も起こらない。データが保存されておらず、カレンダーに何も反映されていない。
-</t>
-    <rPh sb="12" eb="13">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ハンエイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1211,8 +1116,132 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>設定画面</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付の形式を自由に入力できる</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレンダー画面
+日付詳細シート</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月齢の表示が"m5d3"等となっており、逆である</t>
+    <rPh sb="0" eb="2">
+      <t>ゲツレイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ギャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">iosで実行すると"保存して閉じる"押下で何も起こらない。データが保存されておらず、カレンダーに何も反映されていない。
+（ブラウザからのアクセスでは保存できている）
+</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スクロールできない（ブラウザ版）</t>
+    <rPh sb="14" eb="15">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#1の対応で同時に解消</t>
+    <rPh sb="3" eb="5">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生後日数が反映されていない
+"NaN日目"という表示になっている</t>
+    <rPh sb="0" eb="2">
+      <t>セイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニチメ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>"保存して閉じる"押下で保存ができていない。
-押下しても画面が閉じない</t>
+押下しても画面が閉じない
+ WARN  normalizeDateKey failed; skipping value achievements [Error: toIsoDateString: Invalid Date provided]</t>
     <rPh sb="1" eb="3">
       <t>ホゾン</t>
     </rPh>
@@ -1233,6 +1262,45 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AchievementSheet.tsx</t>
+  </si>
+  <si>
+    <t>iOSで例外が発生し、それを処理できていなかった。
+iOS は "YYYY-MM-DD" を正しくパースできない場合がある。
+AchievementSheet の normalizedIso を normalizeToUtcDate で作り直す+F9
+AchievementsContext の upsert と remove に catch/throw を追加
+AchievementForm の handleSubmit に try/catch を追加</t>
+    <rPh sb="4" eb="6">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレンダーのグリッドに実月齢、修正月齢が表示されているが、セルに収まりきらずに見切れている</t>
+    <rPh sb="11" eb="14">
+      <t>ジツゲツレイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>シュウセイゲツレイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オサ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ミキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1312,11 +1380,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1714,11 +1781,710 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:H165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.69921875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="2.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.09765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="55.09765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.796875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="5.69921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="123" hidden="1" customHeight="1">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45988</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="7">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45988</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" ht="28.8" hidden="1">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45988</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="7">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="28.8" hidden="1">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45988</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="28.8">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45988</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" ht="28.8" hidden="1">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45988</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="7">
+        <v>45989</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="100.8" hidden="1">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="6">
+        <v>45989</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="7">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="72">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="6">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="43.2">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="6">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="28.8">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="6">
+        <v>45994</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="5:5">
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="5:5">
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="5:5">
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="5:5">
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="5:5">
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="5:5">
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="5:5">
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="5:5">
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="5:5">
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="5:5">
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="5:5">
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="5:5">
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="5:5">
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="5:5">
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="5:5">
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="5:5">
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="5:5">
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="5:5">
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="5:5">
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="5:5">
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="5:5">
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="5:5">
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="5:5">
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="5:5">
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="5:5">
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="5:5">
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="5:5">
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="5:5">
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122" s="6"/>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" spans="5:5">
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" spans="5:5">
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="5:5">
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" spans="5:5">
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="5:5">
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="5:5">
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="5:5">
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="5:5">
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" spans="5:5">
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="5:5">
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" spans="5:5">
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" spans="5:5">
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" spans="5:5">
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" spans="5:5">
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" spans="5:5">
+      <c r="E163" s="6"/>
+    </row>
+    <row r="164" spans="5:5">
+      <c r="E164" s="6"/>
+    </row>
+    <row r="165" spans="5:5">
+      <c r="E165" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:H12" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}">
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DCA14A-CD39-4243-88A0-59AE89E5604C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="14.4"/>
@@ -1728,12 +2494,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1742,219 +2508,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}">
-  <dimension ref="B2:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.69921875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="2" width="5.69921875" style="4"/>
-    <col min="3" max="3" width="11.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.09765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.09765625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.796875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="5.69921875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8">
-      <c r="B2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="123" customHeight="1">
-      <c r="C3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="6">
-        <v>45988</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="8">
-        <v>45993</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="6">
-        <v>45988</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" ht="28.8">
-      <c r="C5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="6">
-        <v>45988</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:8" ht="28.8">
-      <c r="C6" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="6">
-        <v>45988</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:8" ht="28.8">
-      <c r="C7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="6">
-        <v>45988</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:8" ht="28.8">
-      <c r="C8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="6">
-        <v>45988</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="8">
-        <v>45989</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="43.2">
-      <c r="C9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="7">
-        <v>45989</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="2:8" ht="28.8">
-      <c r="C10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="7">
-        <v>45993</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B2:H9" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}"/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250D396A-6890-4744-A1D9-575BA52AAE81}">
-  <dimension ref="B2:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="20.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EA6AAD-6E84-4FA1-B210-BFF009373F30}">
   <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="14.4"/>
@@ -2099,10 +2658,10 @@
     </row>
     <row r="29" spans="3:32">
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="3:32">
@@ -2132,25 +2691,25 @@
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="D38" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="D41" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2159,7 +2718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5150BB-5B17-4C45-8C95-0C03A60939AF}">
   <dimension ref="A1:AK60"/>
   <sheetViews>
@@ -2406,7 +2965,7 @@
         <v>71</v>
       </c>
       <c r="AK53" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="3:37">
@@ -2457,11 +3016,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A9D083-D91B-4C28-8956-D872D1610324}">
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
@@ -2507,137 +3066,137 @@
     </row>
     <row r="15" spans="1:6">
       <c r="D15" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="F16" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="4:14">
       <c r="F17" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="4:14">
       <c r="I18" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K18" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="4:14">
       <c r="D20" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="4:14">
       <c r="D22" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="4:14">
       <c r="E23" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="4:14">
       <c r="G24" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="4:14">
-      <c r="H25" s="11" t="s">
-        <v>138</v>
+      <c r="H25" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="4:14">
-      <c r="H26" s="11" t="s">
-        <v>137</v>
+      <c r="H26" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="4:14">
-      <c r="G27" s="10"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="4:14">
       <c r="E28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="4:14">
       <c r="F29" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="9"/>
+        <v>130</v>
+      </c>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="4:14">
       <c r="F30" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="4:14">
-      <c r="G31" s="9"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="4:14">
       <c r="F32" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="9"/>
+        <v>133</v>
+      </c>
+      <c r="G32" s="8"/>
       <c r="N32" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="2:29">
       <c r="F33" t="s">
-        <v>146</v>
-      </c>
-      <c r="G33" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="G33" s="8"/>
       <c r="N33" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:29">
-      <c r="G34" s="9"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="2:29">
-      <c r="G35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="2:29">
       <c r="D36" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="2:29">
       <c r="E37" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="2:29">
       <c r="E38" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="2:29">
       <c r="B41" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="2:29">
       <c r="C42" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AC42" t="s">
         <v>92</v>
@@ -2645,37 +3204,61 @@
     </row>
     <row r="43" spans="2:29">
       <c r="Q43" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="2:29">
       <c r="D44" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="J44" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="2:29">
       <c r="D45" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K45" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="2:29">
       <c r="D46" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F46" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F11065E-D824-475C-9DC4-FAA4779A6AA6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="2.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/docs/01_LittleBabyCalendar.xlsx
+++ b/docs/01_LittleBabyCalendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janne\source\little-baby-age-expo54\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E161A49A-5808-42AC-BAF6-2B7D030EF563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE59354-EEE2-4D14-AB27-3E250FA03BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="163">
   <si>
     <t>役割：</t>
     <rPh sb="0" eb="2">
@@ -1301,6 +1301,13 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>ミキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No7と一緒</t>
+    <rPh sb="4" eb="6">
+      <t>イッショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1782,11 +1789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.69921875" defaultRowHeight="14.4"/>
@@ -1825,7 +1831,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="123" hidden="1" customHeight="1">
+    <row r="3" spans="2:8" ht="123" customHeight="1">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -1860,7 +1866,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:8" ht="28.8" hidden="1">
+    <row r="5" spans="2:8" ht="28.8">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>45993</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="28.8" hidden="1">
+    <row r="6" spans="2:8" ht="28.8">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1915,7 +1921,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:8" ht="28.8" hidden="1">
+    <row r="8" spans="2:8" ht="28.8">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="100.8" hidden="1">
+    <row r="9" spans="2:8" ht="100.8">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -1968,6 +1974,12 @@
       <c r="E10" s="6">
         <v>45993</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7">
+        <v>45994</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="3">
@@ -2468,11 +2480,7 @@
       <c r="E165" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H12" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}">
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:H12" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/01_LittleBabyCalendar.xlsx
+++ b/docs/01_LittleBabyCalendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janne\source\little-baby-age-expo54\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE59354-EEE2-4D14-AB27-3E250FA03BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E280FA61-1F61-4EF9-9BC1-AA3C8E0F1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">バグリスト!$B$2:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">バグリスト!$B$2:$H$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1789,10 +1789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.69921875" defaultRowHeight="14.4"/>
@@ -1831,7 +1832,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="123" customHeight="1">
+    <row r="3" spans="2:8" ht="123" hidden="1" customHeight="1">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:8" ht="28.8">
+    <row r="5" spans="2:8" ht="28.8" hidden="1">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>45993</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="28.8">
+    <row r="6" spans="2:8" ht="28.8" hidden="1">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1919,9 +1920,11 @@
       <c r="E7" s="5">
         <v>45988</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" ht="28.8">
+      <c r="G7" s="7">
+        <v>45995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="28.8" hidden="1">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -1941,7 +1944,7 @@
         <v>45989</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="100.8">
+    <row r="9" spans="2:8" ht="100.8" hidden="1">
       <c r="B9" s="3">
         <v>7</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>45994</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="72">
+    <row r="10" spans="2:8" ht="72" hidden="1">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -2480,7 +2483,11 @@
       <c r="E165" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H12" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}"/>
+  <autoFilter ref="B2:H13" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3028,7 +3035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A9D083-D91B-4C28-8956-D872D1610324}">
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>

--- a/docs/01_LittleBabyCalendar.xlsx
+++ b/docs/01_LittleBabyCalendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janne\source\little-baby-age-expo54\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E280FA61-1F61-4EF9-9BC1-AA3C8E0F1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A19B9C9-B8A2-40DE-BF2D-E231A23CF5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="166">
   <si>
     <t>役割：</t>
     <rPh sb="0" eb="2">
@@ -1308,6 +1308,51 @@
     <t>No7と一緒</t>
     <rPh sb="4" eb="6">
       <t>イッショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレンダースクリーンにスクロールビューを追加</t>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スクロールを記述する位置を変更</t>
+    <rPh sb="6" eb="8">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付を作成する箇所にて、数値と文字が逆になっているのを修正</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1793,7 +1838,7 @@
   <dimension ref="B2:H165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.69921875" defaultRowHeight="14.4"/>
@@ -1804,7 +1849,7 @@
     <col min="4" max="4" width="47.09765625" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.59765625" style="3" customWidth="1"/>
     <col min="6" max="6" width="55.09765625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.796875" style="3" customWidth="1"/>
     <col min="9" max="16384" width="5.69921875" style="3"/>
   </cols>
@@ -1865,7 +1910,12 @@
       <c r="E4" s="5">
         <v>45988</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="F4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45995</v>
+      </c>
     </row>
     <row r="5" spans="2:8" ht="28.8" hidden="1">
       <c r="B5" s="3">
@@ -1920,6 +1970,9 @@
       <c r="E7" s="5">
         <v>45988</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="G7" s="7">
         <v>45995</v>
       </c>
@@ -2010,6 +2063,12 @@
       </c>
       <c r="E12" s="6">
         <v>45993</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="7">
+        <v>45995</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="28.8">

--- a/docs/01_LittleBabyCalendar.xlsx
+++ b/docs/01_LittleBabyCalendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janne\source\little-baby-age-expo54\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A19B9C9-B8A2-40DE-BF2D-E231A23CF5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8A048-7C78-4895-ABDD-44BCFCEE0549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="144" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="バグリスト" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="169">
   <si>
     <t>役割：</t>
     <rPh sb="0" eb="2">
@@ -1353,6 +1353,33 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セルの大きさを変更</t>
+    <rPh sb="3" eb="4">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>できた一覧画面</t>
+    <rPh sb="3" eb="7">
+      <t>イチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録したできたが表示されていない</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1838,7 +1865,7 @@
   <dimension ref="B2:H165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.69921875" defaultRowHeight="14.4"/>
@@ -2084,8 +2111,23 @@
       <c r="E13" s="6">
         <v>45994</v>
       </c>
+      <c r="F13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="7">
+        <v>45995</v>
+      </c>
     </row>
     <row r="14" spans="2:8">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:8">

--- a/docs/01_LittleBabyCalendar.xlsx
+++ b/docs/01_LittleBabyCalendar.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janne\source\little-baby-age-expo54\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8A048-7C78-4895-ABDD-44BCFCEE0549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9DFFEC-1866-4D17-80E1-F4AAA8768096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="144" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="バグリスト" sheetId="5" r:id="rId1"/>
-    <sheet name="dataModels.ts" sheetId="7" r:id="rId2"/>
-    <sheet name="App.tsx" sheetId="3" r:id="rId3"/>
-    <sheet name="index.tsx" sheetId="4" r:id="rId4"/>
-    <sheet name="CalendarScreen.tsx" sheetId="2" r:id="rId5"/>
-    <sheet name="AchievementSheet.tsx" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="画面検討" sheetId="9" r:id="rId1"/>
+    <sheet name="バグリスト" sheetId="5" r:id="rId2"/>
+    <sheet name="dataModels.ts" sheetId="7" r:id="rId3"/>
+    <sheet name="App.tsx" sheetId="3" r:id="rId4"/>
+    <sheet name="index.tsx" sheetId="4" r:id="rId5"/>
+    <sheet name="CalendarScreen.tsx" sheetId="2" r:id="rId6"/>
+    <sheet name="AchievementSheet.tsx" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">バグリスト!$B$2:$H$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">バグリスト!$B$2:$H$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="149">
   <si>
     <t>役割：</t>
     <rPh sb="0" eb="2">
@@ -585,138 +586,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>修正月齢、実月齢が反映されていない
-計算された結果が表示されておらず、mnamd…となっている
-また、文字が大きい、セルが小さすぎるという問題が発生しており各月齢が収まりきっていない。</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲツレイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ジツゲツレイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ゲツレイ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>オサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日付詳細シート</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>修正月齢、実月齢が反映されていない
-両方とも"mNaNdNaN"という表示になっている</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲツレイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ジツゲツレイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトルや詳細を入力する際、キーボードにより、入力欄が隠れてしまっている</t>
-    <rPh sb="5" eb="7">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"保存して閉じる"押下で落ちる。
-再度アプリを開いても、登録内容が反映されていない。</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>トウロクナイヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>C:\Users\janne\source\little-baby-age-expo54\src\models\dataModels.ts</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -749,16 +618,6 @@
     <t>対応日</t>
     <rPh sb="0" eb="3">
       <t>タイオウビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Achievementを辞書形式に変更</t>
-    <rPh sb="12" eb="16">
-      <t>ジショケイシキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1015,356 +874,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t># 修正依頼：日付処理の不整合によりアプリ全体で NaN が発生する問題の修正
-## 背景
-リトルベビーカレンダーアプリにおいて、以下の重大な不具合が発生している。
-- 実月齢・修正月齢が「mNaNdNaN」など NaN 表示になる
-- 生後日数も NaN
-- AchievementSheet に渡される isoDay が壊れる
-- 保存したデータの日付キーが壊れている
-- カレンダーに反映されない
-- 「保存して閉じる」が正常動作しない箇所がある
-これらはすべて **日付オブジェクト（Date）と ISO 文字列の混在** と  
-**normalizeToUtcDate の誤った使用** によって、  
-不正な ISO 文字列や Invalid Date が生成されていることが根本原因。
-アプリ内の複数箇所で連鎖的に壊れているため、  
-以下の内容を必ず「抜け漏れなく」修正してほしい。
----
-# 修正内容（必須）
-## ① AchievementSheet の isoDay 初期値生成の誤りを修正
-現状のコードは以下のように Date を normalizeToUtcDate に渡してしまっている。
-```tsx
-isoDay={normalizedIso ?? toIsoDateString(normalizeToUtcDate(new Date()))}
-```
-normalizeToUtcDate は string を対象とした関数であり、  
-Date オブジェクトに対して使用すると「UTC 変換の丸め/ズレ」が発生し、  
-日付が1日ずれる、Invalid Date が生成される、などの問題を引き起こす。
-**修正方針：**
-- Date 型の初期値は `toIsoDateString(new Date())` を直接使用する
-- normalizeToUtcDate を使用しない
----
-## ② AchievementSheet の isoDay 正規化を修正
-現在：
-```ts
-const normalizedIso = isoDay
-  ? toIsoDateString(normalizeToUtcDate(isoDay))
-  : null;
-```
-これにより、isoDay が "YYYY-MM-DD" 形式でない場合  
-→ split が失敗  
-→ normalizeToUtcDate が Invalid Date を返す  
-→ "NaN-NaN-NaN" が生成される
-**修正方針：**
-- isoDay は常に `toIsoDateString(new Date(isoDay))` によって正規化する
-- normalizeToUtcDate は string → Date のみに使用し、Date には使用しないこと
----
-## ③ AchievementsContext.upsert の日付バリデーションと安全化
-現状：
-```ts
-const normalizedDate = toIsoDateString(
-  normalizeToUtcDate(payload.date)
-);
-```
-payload.date が壊れている場合でも上記処理を通過し、  
-"NaN-NaN-NaN" のような日付が永続化されてしまう。
-**修正方針：**
-- payload.date が ISO 形式（YYYY-MM-DD）であることをバリデーションする
-- 不正値なら例外を投げる or 保存をスキップ
-- normalizeToUtcDate に string 以外を渡さないようにガードを入れる
-例：
-```ts
-if (typeof payload.date !== "string" || !/^\d{4}-\d{2}-\d{2}$/.test(payload.date)) {
-  throw new Error(`Invalid date format in upsert: ${payload.date}`);
-}
-```
----
-## ④ 日付処理の方針をプロジェクト全体で統一
-- Date → UI → 保存 → 読み込み → 計算  
-この流れは **すべて ISO 文字列（YYYY-MM-DD）** を基本とする。
-- UI で DatePicker を使用する場合は「Date → ISO」変換する。
-- normalizeToUtcDate は ISO string を UTC Date に変換する用途のみに使用し、  
-  Date 型に使用しないこと。
----
-# 修正対象ファイル一覧
-- src/components/AchievementSheet.tsx  
-- src/components/AchievementForm.tsx  
-- src/state/AchievementsContext.tsx  
-- src/utils/dateUtils.ts（必要なら安全なガード追加）
-- ※ 他ファイルで日付を新規生成している箇所があれば全て ISO 形式へ統一
----
-# 期待する成果（必須）
-1. 実月齢・修正月齢に NaN が表示されなくなる  
-2. 生後日数が正しく表示される  
-3. カレンダーを開いても NaN が発生しない  
-4. AchievementSheet が正しい日付で開く  
-5. 保存したデータが壊れなくなる  
-6. ストレージの壊れたデータが発生しないように防御処理が入る  
-7. 日付のズレ（1日ずれる、前日/翌日になる）が発生しない  
-8. 日付処理が ISO 形式に統一され、再現性が高くなる
----
-# 提供する補足情報（必要なら CodeX へ利用可）
-- normalizeToUtcDate が Date を受け取った場合に UTC 丸めが発生し、日付ズレや Invalid Date の原因になっている  
-- 歪んだ日付が永続化されると、月集計と ageInfo が完全に破壊される  
-- これらは赤エラーを出さないため、Silent Failure となる  
-- すべての症状は日付不整合から派生している  
-- 修正の鍵は「Date と ISO の混在の排除」
----
-# 最後に
-この修正はアプリの根本的安定性に関わるため、  
-**部分修正ではなく “日付処理の全体方針統一” を必ず行ってください。**  
-上記全てを踏まえて、安全なリファクタリングを実施してください。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>設定画面</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日付の形式を自由に入力できる</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジユウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カレンダー画面
-日付詳細シート</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月齢の表示が"m5d3"等となっており、逆である</t>
-    <rPh sb="0" eb="2">
-      <t>ゲツレイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ギャク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">iosで実行すると"保存して閉じる"押下で何も起こらない。データが保存されておらず、カレンダーに何も反映されていない。
-（ブラウザからのアクセスでは保存できている）
-</t>
-    <rPh sb="4" eb="6">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スクロールできない（ブラウザ版）</t>
-    <rPh sb="14" eb="15">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#1の対応で同時に解消</t>
-    <rPh sb="3" eb="5">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生後日数が反映されていない
-"NaN日目"という表示になっている</t>
-    <rPh sb="0" eb="2">
-      <t>セイゴ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニッスウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニチメ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"保存して閉じる"押下で保存ができていない。
-押下しても画面が閉じない
- WARN  normalizeDateKey failed; skipping value achievements [Error: toIsoDateString: Invalid Date provided]</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>AchievementSheet.tsx</t>
-  </si>
-  <si>
-    <t>iOSで例外が発生し、それを処理できていなかった。
-iOS は "YYYY-MM-DD" を正しくパースできない場合がある。
-AchievementSheet の normalizedIso を normalizeToUtcDate で作り直す+F9
-AchievementsContext の upsert と remove に catch/throw を追加
-AchievementForm の handleSubmit に try/catch を追加</t>
-    <rPh sb="4" eb="6">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カレンダーのグリッドに実月齢、修正月齢が表示されているが、セルに収まりきらずに見切れている</t>
-    <rPh sb="11" eb="14">
-      <t>ジツゲツレイ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>シュウセイゲツレイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>オサ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ミキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>No7と一緒</t>
-    <rPh sb="4" eb="6">
-      <t>イッショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カレンダースクリーンにスクロールビューを追加</t>
-    <rPh sb="20" eb="22">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スクロールを記述する位置を変更</t>
-    <rPh sb="6" eb="8">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日付を作成する箇所にて、数値と文字が逆になっているのを修正</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ギャク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セルの大きさを変更</t>
-    <rPh sb="3" eb="4">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>できた一覧画面</t>
@@ -1381,6 +891,30 @@
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Today画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この画面に戻るボタンが欲しい</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2025/12/14</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1459,7 +993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1487,6 +1021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1506,6 +1041,409 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>36792</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>18369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA61C377-3C3F-ADD2-A419-5D52C338CD01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="236220" y="472440"/>
+          <a:ext cx="3709632" cy="4483689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A83BDF3-1274-E9F2-4636-35645D1C93AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="2232660"/>
+          <a:ext cx="3627120" cy="1592580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 角を丸めた四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B95614F-8B01-F9D1-1AE1-A73D5926809D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4259580" y="1943100"/>
+          <a:ext cx="1493520" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62670"/>
+            <a:gd name="adj2" fmla="val 69167"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>このボタンは不要になったので削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1243</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29DFE1E-76E8-4820-01E9-03AAE725E6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205741" y="6187439"/>
+          <a:ext cx="3910302" cy="4671061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C51EC8-3D09-4C26-8EE1-08C8A725FF0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="6179820"/>
+          <a:ext cx="861060" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{546DD767-B91D-44E9-A909-4261EF8A1D79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4130040" y="5379720"/>
+          <a:ext cx="1493520" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62670"/>
+            <a:gd name="adj2" fmla="val 69167"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>このボタンは不要になったので削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>48493</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>163096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9923F051-F3D4-80E7-2B10-31930E78E8C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="12252960"/>
+          <a:ext cx="6220693" cy="8392696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1860,12 +1798,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA799D4D-685C-468A-B8EB-81E4D8FBB25D}">
+  <dimension ref="B2:AJ68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="AI69" sqref="AI69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="2.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="35:36">
+      <c r="AI67" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="35:36">
+      <c r="AJ68" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:H165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.69921875" defaultRowHeight="14.4"/>
@@ -1892,241 +1864,74 @@
         <v>94</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="123" hidden="1" customHeight="1">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45988</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="7">
-        <v>45993</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="123" customHeight="1">
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="5">
-        <v>45988</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7">
-        <v>45995</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="28.8" hidden="1">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45988</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7">
-        <v>45993</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="28.8" hidden="1">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="5">
-        <v>45988</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="7">
-        <v>45993</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="28.8">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="5">
-        <v>45988</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="7">
-        <v>45995</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="28.8" hidden="1">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="5">
-        <v>45988</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="7">
-        <v>45989</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="100.8" hidden="1">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="6">
-        <v>45989</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="7">
-        <v>45994</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="72" hidden="1">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="6">
-        <v>45993</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7">
-        <v>45994</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="E5" s="5"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="E6" s="5"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="E7" s="5"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="E8" s="5"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="6">
-        <v>45993</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="43.2">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="6">
-        <v>45993</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="7">
-        <v>45995</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="28.8">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="6">
-        <v>45994</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="7">
-        <v>45995</v>
-      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="E13" s="6"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -2584,18 +2389,14 @@
       <c r="E165" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H13" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}">
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B2:H13" xr:uid="{E795A72B-B203-49F9-8AD6-45A40D6AC3F2}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DCA14A-CD39-4243-88A0-59AE89E5604C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2610,12 +2411,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +2425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EA6AAD-6E84-4FA1-B210-BFF009373F30}">
   <dimension ref="A1:AF41"/>
   <sheetViews>
@@ -2774,10 +2575,10 @@
     </row>
     <row r="29" spans="3:32">
       <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="3:32">
@@ -2807,25 +2608,25 @@
     </row>
     <row r="36" spans="4:5">
       <c r="D36" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="D38" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2834,7 +2635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5150BB-5B17-4C45-8C95-0C03A60939AF}">
   <dimension ref="A1:AK60"/>
   <sheetViews>
@@ -3081,7 +2882,7 @@
         <v>71</v>
       </c>
       <c r="AK53" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="3:37">
@@ -3132,7 +2933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A9D083-D91B-4C28-8956-D872D1610324}">
   <dimension ref="A1:AC46"/>
   <sheetViews>
@@ -3182,64 +2983,64 @@
     </row>
     <row r="15" spans="1:6">
       <c r="D15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="F16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="4:14">
       <c r="F17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="4:14">
       <c r="I18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="4:14">
       <c r="D20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="4:14">
       <c r="D22" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="4:14">
       <c r="E23" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="4:14">
       <c r="G24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="4:14">
       <c r="H25" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="4:14">
       <c r="H26" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="4:14">
@@ -3247,19 +3048,19 @@
     </row>
     <row r="28" spans="4:14">
       <c r="E28" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="4:14">
       <c r="F29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="4:14">
       <c r="F30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G30" s="8"/>
     </row>
@@ -3268,20 +3069,20 @@
     </row>
     <row r="32" spans="4:14">
       <c r="F32" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G32" s="8"/>
       <c r="N32" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="2:29">
       <c r="F33" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G33" s="8"/>
       <c r="N33" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="2:29">
@@ -3292,27 +3093,27 @@
     </row>
     <row r="36" spans="2:29">
       <c r="D36" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:29">
       <c r="E37" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="2:29">
       <c r="E38" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="2:29">
       <c r="B41" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="2:29">
       <c r="C42" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AC42" t="s">
         <v>92</v>
@@ -3320,31 +3121,31 @@
     </row>
     <row r="43" spans="2:29">
       <c r="Q43" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="2:29">
       <c r="D44" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J44" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="2:29">
       <c r="D45" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K45" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="2:29">
       <c r="D46" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3354,7 +3155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F11065E-D824-475C-9DC4-FAA4779A6AA6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3369,7 +3170,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3378,12 +3179,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AP13" sqref="AP13"/>
+      <selection activeCell="AE25" sqref="AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="14.4"/>

--- a/docs/01_LittleBabyCalendar.xlsx
+++ b/docs/01_LittleBabyCalendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janne\source\little-baby-age-expo54\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9DFFEC-1866-4D17-80E1-F4AAA8768096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8861512D-CBF7-47C7-8876-8D1AB8023901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="176">
   <si>
     <t>役割：</t>
     <rPh sb="0" eb="2">
@@ -917,6 +917,149 @@
     <t>2025/12/14</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>成長記録</t>
+    <rPh sb="0" eb="2">
+      <t>セイチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「一覧」押下で記録の一覧画面へ戻る</t>
+    <rPh sb="1" eb="3">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>期間をプルダウン形式で選べる</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グラフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←メニューボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年月</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>件数</t>
+    <rPh sb="0" eb="2">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>累計</t>
+    <rPh sb="0" eb="2">
+      <t>ルイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>w表記は、修正月齢が0M未満の期間にのみ使用する</t>
+  </si>
+  <si>
+    <t>実月齢の表記には使用しない</t>
+  </si>
 </sst>
 </file>
 
@@ -925,7 +1068,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,6 +1106,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -978,12 +1129,92 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -993,7 +1224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1022,6 +1253,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="55" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1038,6 +1280,1196 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>記録</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>画面検討!$AL$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>件数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>画面検討!$AJ$146:$AK$157</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>-1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>9</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>画面検討!$AL$146:$AL$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF3E-4FBE-9A3A-8DBA23774C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1368504159"/>
+        <c:axId val="1368502719"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>画面検討!$AM$145</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>累計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>画面検討!$AK$146:$AK$157</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>画面検討!$AM$146:$AM$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF3E-4FBE-9A3A-8DBA23774C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1990031951"/>
+        <c:axId val="1990044431"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1368504159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1368502719"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1368502719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1368504159"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1990044431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1990031951"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1990031951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1990044431"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1404,8 +2836,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>48493</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>254233</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>163096</xdr:rowOff>
     </xdr:to>
@@ -1438,6 +2870,159 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>142324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>108682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF20687-32D6-8C48-CFE4-4BE4C97056D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="525780" y="25562644"/>
+          <a:ext cx="3398520" cy="332118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="グラフ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695D138B-342B-9F61-C5C6-8FF2153D6F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15340A4-F366-93BA-8630-0DA55416C9C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5783580" y="28559760"/>
+          <a:ext cx="701040" cy="556260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>実月齢</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>修正月齢</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1799,15 +3384,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA799D4D-685C-468A-B8EB-81E4D8FBB25D}">
-  <dimension ref="B2:AJ68"/>
+  <dimension ref="B2:AM164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="AI69" sqref="AI69"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="2.69921875" style="1"/>
+    <col min="1" max="30" width="2.69921875" style="1"/>
+    <col min="31" max="31" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.69921875" style="1"/>
+    <col min="33" max="33" width="3.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="2.69921875" style="1"/>
+    <col min="36" max="36" width="5.8984375" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="2.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -1823,6 +3414,745 @@
     <row r="68" spans="35:36">
       <c r="AJ68" s="1" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="3:22">
+      <c r="C117" s="12"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
+      <c r="O117" s="13"/>
+      <c r="P117" s="13"/>
+      <c r="Q117" s="13"/>
+      <c r="R117" s="13"/>
+      <c r="S117" s="13"/>
+      <c r="T117" s="14"/>
+    </row>
+    <row r="118" spans="3:22">
+      <c r="C118" s="15"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="16"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="16"/>
+      <c r="N118" s="16"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="16"/>
+      <c r="R118" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="S118" s="21"/>
+      <c r="T118" s="17"/>
+      <c r="V118" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="3:22">
+      <c r="C119" s="15"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="16"/>
+      <c r="N119" s="16"/>
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+      <c r="Q119" s="16"/>
+      <c r="R119" s="16"/>
+      <c r="S119" s="16"/>
+      <c r="T119" s="17"/>
+    </row>
+    <row r="120" spans="3:22">
+      <c r="C120" s="15"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="16"/>
+      <c r="S120" s="16"/>
+      <c r="T120" s="17"/>
+      <c r="V120" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="3:22">
+      <c r="C121" s="15"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="16"/>
+      <c r="N121" s="16"/>
+      <c r="O121" s="16"/>
+      <c r="P121" s="16"/>
+      <c r="Q121" s="16"/>
+      <c r="R121" s="16"/>
+      <c r="S121" s="16"/>
+      <c r="T121" s="17"/>
+    </row>
+    <row r="122" spans="3:22">
+      <c r="C122" s="15"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="16"/>
+      <c r="P122" s="16"/>
+      <c r="Q122" s="16"/>
+      <c r="R122" s="16"/>
+      <c r="S122" s="16"/>
+      <c r="T122" s="17"/>
+    </row>
+    <row r="123" spans="3:22">
+      <c r="C123" s="15"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="13"/>
+      <c r="N123" s="13"/>
+      <c r="O123" s="13"/>
+      <c r="P123" s="13"/>
+      <c r="Q123" s="13"/>
+      <c r="R123" s="14"/>
+      <c r="S123" s="16"/>
+      <c r="T123" s="17"/>
+    </row>
+    <row r="124" spans="3:22">
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="16"/>
+      <c r="N124" s="16"/>
+      <c r="O124" s="16"/>
+      <c r="P124" s="16"/>
+      <c r="Q124" s="16"/>
+      <c r="R124" s="17"/>
+      <c r="S124" s="16"/>
+      <c r="T124" s="17"/>
+    </row>
+    <row r="125" spans="3:22">
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="16"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="16"/>
+      <c r="P125" s="16"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="17"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="17"/>
+    </row>
+    <row r="126" spans="3:22">
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="16"/>
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
+      <c r="P126" s="16"/>
+      <c r="Q126" s="16"/>
+      <c r="R126" s="17"/>
+      <c r="S126" s="16"/>
+      <c r="T126" s="17"/>
+    </row>
+    <row r="127" spans="3:22">
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="16"/>
+      <c r="N127" s="16"/>
+      <c r="O127" s="16"/>
+      <c r="P127" s="16"/>
+      <c r="Q127" s="16"/>
+      <c r="R127" s="17"/>
+      <c r="S127" s="16"/>
+      <c r="T127" s="17"/>
+    </row>
+    <row r="128" spans="3:22">
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="16"/>
+      <c r="N128" s="16"/>
+      <c r="O128" s="16"/>
+      <c r="P128" s="16"/>
+      <c r="Q128" s="16"/>
+      <c r="R128" s="17"/>
+      <c r="S128" s="16"/>
+      <c r="T128" s="17"/>
+    </row>
+    <row r="129" spans="3:22">
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
+      <c r="P129" s="16"/>
+      <c r="Q129" s="16"/>
+      <c r="R129" s="17"/>
+      <c r="S129" s="16"/>
+      <c r="T129" s="17"/>
+    </row>
+    <row r="130" spans="3:22">
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="16"/>
+      <c r="N130" s="16"/>
+      <c r="O130" s="16"/>
+      <c r="P130" s="16"/>
+      <c r="Q130" s="16"/>
+      <c r="R130" s="17"/>
+      <c r="S130" s="16"/>
+      <c r="T130" s="17"/>
+    </row>
+    <row r="131" spans="3:22">
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="16"/>
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
+      <c r="P131" s="16"/>
+      <c r="Q131" s="16"/>
+      <c r="R131" s="17"/>
+      <c r="S131" s="16"/>
+      <c r="T131" s="17"/>
+    </row>
+    <row r="132" spans="3:22">
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="16"/>
+      <c r="N132" s="16"/>
+      <c r="O132" s="16"/>
+      <c r="P132" s="16"/>
+      <c r="Q132" s="16"/>
+      <c r="R132" s="17"/>
+      <c r="S132" s="16"/>
+      <c r="T132" s="17"/>
+    </row>
+    <row r="133" spans="3:22">
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="16"/>
+      <c r="M133" s="16"/>
+      <c r="N133" s="16"/>
+      <c r="O133" s="16"/>
+      <c r="P133" s="16"/>
+      <c r="Q133" s="16"/>
+      <c r="R133" s="17"/>
+      <c r="S133" s="16"/>
+      <c r="T133" s="17"/>
+    </row>
+    <row r="134" spans="3:22">
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="16"/>
+      <c r="N134" s="16"/>
+      <c r="O134" s="16"/>
+      <c r="P134" s="16"/>
+      <c r="Q134" s="16"/>
+      <c r="R134" s="17"/>
+      <c r="S134" s="16"/>
+      <c r="T134" s="17"/>
+    </row>
+    <row r="135" spans="3:22">
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="16"/>
+      <c r="N135" s="16"/>
+      <c r="O135" s="16"/>
+      <c r="P135" s="16"/>
+      <c r="Q135" s="16"/>
+      <c r="R135" s="17"/>
+      <c r="S135" s="16"/>
+      <c r="T135" s="17"/>
+    </row>
+    <row r="136" spans="3:22">
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
+      <c r="M136" s="16"/>
+      <c r="N136" s="16"/>
+      <c r="O136" s="16"/>
+      <c r="P136" s="16"/>
+      <c r="Q136" s="16"/>
+      <c r="R136" s="17"/>
+      <c r="S136" s="16"/>
+      <c r="T136" s="17"/>
+    </row>
+    <row r="137" spans="3:22">
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="16"/>
+      <c r="M137" s="16"/>
+      <c r="N137" s="16"/>
+      <c r="O137" s="16"/>
+      <c r="P137" s="16"/>
+      <c r="Q137" s="16"/>
+      <c r="R137" s="17"/>
+      <c r="S137" s="16"/>
+      <c r="T137" s="17"/>
+    </row>
+    <row r="138" spans="3:22">
+      <c r="C138" s="15"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+      <c r="O138" s="19"/>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="20"/>
+      <c r="S138" s="16"/>
+      <c r="T138" s="17"/>
+    </row>
+    <row r="139" spans="3:22">
+      <c r="C139" s="15"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="16"/>
+      <c r="N139" s="16"/>
+      <c r="O139" s="16"/>
+      <c r="P139" s="16"/>
+      <c r="Q139" s="16"/>
+      <c r="R139" s="16"/>
+      <c r="S139" s="16"/>
+      <c r="T139" s="17"/>
+    </row>
+    <row r="140" spans="3:22">
+      <c r="C140" s="15"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="16"/>
+      <c r="L140" s="16"/>
+      <c r="M140" s="16"/>
+      <c r="N140" s="16"/>
+      <c r="O140" s="16"/>
+      <c r="P140" s="16"/>
+      <c r="Q140" s="16"/>
+      <c r="R140" s="16"/>
+      <c r="S140" s="16"/>
+      <c r="T140" s="17"/>
+    </row>
+    <row r="141" spans="3:22">
+      <c r="C141" s="15"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="16"/>
+      <c r="N141" s="16"/>
+      <c r="O141" s="16"/>
+      <c r="P141" s="16"/>
+      <c r="Q141" s="16"/>
+      <c r="R141" s="16"/>
+      <c r="S141" s="16"/>
+      <c r="T141" s="17"/>
+      <c r="V141" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="3:22">
+      <c r="C142" s="18"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="19"/>
+      <c r="L142" s="19"/>
+      <c r="M142" s="19"/>
+      <c r="N142" s="19"/>
+      <c r="O142" s="19"/>
+      <c r="P142" s="19"/>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="19"/>
+      <c r="S142" s="19"/>
+      <c r="T142" s="20"/>
+    </row>
+    <row r="145" spans="36:39">
+      <c r="AJ145" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK145" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL145" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM145" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" spans="36:39">
+      <c r="AJ146" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK146" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL146" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM146" s="1">
+        <f>SUM(AL146)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="36:39">
+      <c r="AJ147" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="AK147" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL147" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM147" s="1">
+        <f>SUM(AL$146:AL147)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="36:39">
+      <c r="AJ148" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK148" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM148" s="1">
+        <f>SUM(AL$146:AL148)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="36:39">
+      <c r="AJ149" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK149" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM149" s="1">
+        <f>SUM(AL$146:AL149)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="36:39">
+      <c r="AJ150" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK150" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL150" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM150" s="1">
+        <f>SUM(AL$146:AL150)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="36:39">
+      <c r="AJ151" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK151" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL151" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM151" s="1">
+        <f>SUM(AL$146:AL151)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="36:39">
+      <c r="AJ152" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK152" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL152" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM152" s="1">
+        <f>SUM(AL$146:AL152)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="36:39">
+      <c r="AJ153" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK153" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL153" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM153" s="1">
+        <f>SUM(AL$146:AL153)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="36:39">
+      <c r="AJ154" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK154" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL154" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM154" s="1">
+        <f>SUM(AL$146:AL154)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="36:39">
+      <c r="AJ155" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="AK155" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL155" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM155" s="1">
+        <f>SUM(AL$146:AL155)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="36:39">
+      <c r="AJ156" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK156" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL156" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM156" s="1">
+        <f>SUM(AL$146:AL156)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="36:39">
+      <c r="AJ157" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK157" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL157" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM157" s="1">
+        <f>SUM(AL$146:AL157)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="10:10" ht="18">
+      <c r="J163" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="164" spans="10:10" ht="18">
+      <c r="J164" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
